--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_3779.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_3779.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3779</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Lokuge Dinesh Chandimal</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -503,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3115</t>
+          <t>3115</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -555,7 +620,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3118</t>
+          <t>3118</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -607,7 +672,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3119</t>
+          <t>3119</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -659,7 +724,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3120</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -711,7 +776,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3302</t>
+          <t>3302</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -763,7 +828,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3303</t>
+          <t>3303</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -815,7 +880,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3304</t>
+          <t>3304</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -867,7 +932,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3305</t>
+          <t>3305</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -919,7 +984,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3308</t>
+          <t>3308</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -971,7 +1036,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3311</t>
+          <t>3311</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1023,7 +1088,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3314</t>
+          <t>3314</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1075,7 +1140,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3316</t>
+          <t>3316</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1127,7 +1192,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3348</t>
+          <t>3348</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1179,7 +1244,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3349</t>
+          <t>3349</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1231,7 +1296,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3350</t>
+          <t>3350</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1283,7 +1348,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3351</t>
+          <t>3351</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1335,7 +1400,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3352</t>
+          <t>3352</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1387,7 +1452,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3361</t>
+          <t>3361</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1439,7 +1504,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3362</t>
+          <t>3362</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1491,7 +1556,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3363</t>
+          <t>3363</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1543,7 +1608,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3364</t>
+          <t>3364</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1595,7 +1660,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3365</t>
+          <t>3365</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1647,7 +1712,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3369</t>
+          <t>3369</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1699,7 +1764,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3371</t>
+          <t>3371</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1751,7 +1816,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3375</t>
+          <t>3375</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1803,7 +1868,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3377</t>
+          <t>3377</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1855,7 +1920,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3382</t>
+          <t>3382</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1907,7 +1972,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3384</t>
+          <t>3384</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1959,7 +2024,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3387</t>
+          <t>3387</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2011,7 +2076,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3389</t>
+          <t>3389</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2063,7 +2128,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3391</t>
+          <t>3391</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2115,7 +2180,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3392</t>
+          <t>3392</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2167,7 +2232,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3393</t>
+          <t>3393</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2219,7 +2284,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3395</t>
+          <t>3395</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2271,7 +2336,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3396</t>
+          <t>3396</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2323,7 +2388,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3408</t>
+          <t>3408</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2375,7 +2440,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3409</t>
+          <t>3409</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2415,7 +2480,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>13/06/2012</t>
@@ -2423,7 +2487,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3410</t>
+          <t>3410</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2475,7 +2539,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3411</t>
+          <t>3411</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2527,7 +2591,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3413</t>
+          <t>3413</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2579,7 +2643,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3431</t>
+          <t>3431</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2631,7 +2695,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3432</t>
+          <t>3432</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2683,7 +2747,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3433</t>
+          <t>3433</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2735,7 +2799,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3434</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2787,7 +2851,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3435</t>
+          <t>3435</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2839,7 +2903,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3448</t>
+          <t>3448</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2891,7 +2955,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3449</t>
+          <t>3449</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2943,7 +3007,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3458</t>
+          <t>3458</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2983,7 +3047,6 @@
           <t>49</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>20/01/2013</t>
@@ -2991,7 +3054,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3465</t>
+          <t>3465</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3043,7 +3106,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3467</t>
+          <t>3467</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3095,7 +3158,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3490</t>
+          <t>3490</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3135,7 +3198,6 @@
           <t>52</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>25/03/2013</t>
@@ -3143,7 +3205,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3492</t>
+          <t>3492</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3195,7 +3257,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3493</t>
+          <t>3493</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3247,7 +3309,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3508</t>
+          <t>3508</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3287,7 +3349,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>13/06/2013</t>
@@ -3295,7 +3356,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3512</t>
+          <t>3512</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3347,7 +3408,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3516</t>
+          <t>3516</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3399,7 +3460,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3520</t>
+          <t>3520</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3439,7 +3500,6 @@
           <t>58</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>02/07/2013</t>
@@ -3447,7 +3507,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3524</t>
+          <t>3524</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3499,7 +3559,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3527</t>
+          <t>3527</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3551,7 +3611,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3529</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3603,7 +3663,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3530</t>
+          <t>3530</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3655,7 +3715,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3534</t>
+          <t>3534</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3707,7 +3767,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3536</t>
+          <t>3536</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3759,7 +3819,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3540</t>
+          <t>3540</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3799,7 +3859,6 @@
           <t>65</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>28/07/2013</t>
@@ -3807,7 +3866,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3542</t>
+          <t>3542</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3847,7 +3906,6 @@
           <t>66</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>31/07/2013</t>
@@ -3855,7 +3913,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3543</t>
+          <t>3543</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3907,7 +3965,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3576</t>
+          <t>3576</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3947,7 +4005,6 @@
           <t>68</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>12/11/2013</t>
@@ -3955,7 +4012,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3578</t>
+          <t>3578</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4007,7 +4064,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3579</t>
+          <t>3579</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4059,7 +4116,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3589</t>
+          <t>3589</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4111,7 +4168,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3590</t>
+          <t>3590</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4163,7 +4220,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3591</t>
+          <t>3591</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4215,7 +4272,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3592</t>
+          <t>3592</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4267,7 +4324,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3594</t>
+          <t>3594</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4319,7 +4376,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3614</t>
+          <t>3614</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4371,7 +4428,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3615</t>
+          <t>3615</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4423,7 +4480,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3616</t>
+          <t>3616</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4475,7 +4532,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3618</t>
+          <t>3618</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4527,7 +4584,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3621</t>
+          <t>3621</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4579,7 +4636,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3626</t>
+          <t>3626</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4631,7 +4688,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3635</t>
+          <t>3635</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4683,7 +4740,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3638</t>
+          <t>3638</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4735,7 +4792,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3639</t>
+          <t>3639</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4787,7 +4844,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3640</t>
+          <t>3640</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4839,7 +4896,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3658</t>
+          <t>3658</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4891,7 +4948,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3693</t>
+          <t>3693</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4943,7 +5000,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3696</t>
+          <t>3696</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4995,7 +5052,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3716</t>
+          <t>3716</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5047,7 +5104,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3718</t>
+          <t>3718</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5099,7 +5156,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3737</t>
+          <t>3737</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5151,7 +5208,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3739</t>
+          <t>3739</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5203,7 +5260,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3743</t>
+          <t>3743</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5243,7 +5300,6 @@
           <t>93</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
           <t>26/02/2015</t>
@@ -5251,7 +5307,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3765</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5291,7 +5347,6 @@
           <t>94</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
           <t>01/03/2015</t>
@@ -5299,7 +5354,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3769</t>
+          <t>3769</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5351,7 +5406,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3779</t>
+          <t>3779</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5403,7 +5458,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3814</t>
+          <t>3814</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5455,7 +5510,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3819</t>
+          <t>3819</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5507,7 +5562,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3820</t>
+          <t>3820</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5559,7 +5614,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3821</t>
+          <t>3821</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5611,7 +5666,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3822</t>
+          <t>3822</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5663,7 +5718,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3853</t>
+          <t>3853</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5715,7 +5770,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3855</t>
+          <t>3855</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5767,7 +5822,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3865</t>
+          <t>3865</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5819,7 +5874,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3866</t>
+          <t>3866</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5871,7 +5926,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3868</t>
+          <t>3868</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5911,7 +5966,6 @@
           <t>106</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
           <t>02/01/2016</t>
@@ -5919,7 +5973,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3870</t>
+          <t>3870</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5971,7 +6025,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3872</t>
+          <t>3872</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6023,7 +6077,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3901</t>
+          <t>3901</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6075,7 +6129,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3902</t>
+          <t>3902</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6127,7 +6181,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3904</t>
+          <t>3904</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6179,7 +6233,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3906</t>
+          <t>3906</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6231,7 +6285,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3908</t>
+          <t>3908</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6283,7 +6337,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3910</t>
+          <t>3910</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6335,7 +6389,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3911</t>
+          <t>3911</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6387,7 +6441,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3923</t>
+          <t>3923</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6439,7 +6493,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3924</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6491,7 +6545,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3927</t>
+          <t>3927</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6543,7 +6597,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3929</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6595,7 +6649,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3931</t>
+          <t>3931</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6647,7 +6701,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3983</t>
+          <t>3983</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6699,7 +6753,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3985</t>
+          <t>3985</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6751,7 +6805,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3987</t>
+          <t>3987</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6803,7 +6857,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4011</t>
+          <t>4011</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6855,7 +6909,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4012</t>
+          <t>4012</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6907,7 +6961,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4014</t>
+          <t>4014</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6959,7 +7013,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4033</t>
+          <t>4033</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -6999,7 +7053,6 @@
           <t>127</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr">
         <is>
           <t>08/06/2017</t>
@@ -7007,7 +7060,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4038</t>
+          <t>4038</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7059,7 +7112,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4044</t>
+          <t>4044</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7111,7 +7164,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4063</t>
+          <t>4063</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7163,7 +7216,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4079</t>
+          <t>4079</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7215,7 +7268,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4081</t>
+          <t>4081</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7267,7 +7320,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4082</t>
+          <t>4082</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7319,7 +7372,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4084</t>
+          <t>4084</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7371,7 +7424,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4087</t>
+          <t>4087</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7423,7 +7476,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4112</t>
+          <t>4112</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7475,7 +7528,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4116</t>
+          <t>4116</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7527,7 +7580,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4119</t>
+          <t>4119</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7567,7 +7620,6 @@
           <t>138</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr">
         <is>
           <t>25/01/2018</t>
@@ -7575,7 +7627,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4122</t>
+          <t>4122</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7627,7 +7679,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4124</t>
+          <t>4124</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7667,7 +7719,6 @@
           <t>140</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr">
         <is>
           <t>10/10/2018</t>
@@ -7675,7 +7726,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4209</t>
+          <t>4209</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7727,7 +7778,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4210</t>
+          <t>4210</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7779,7 +7830,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4211</t>
+          <t>4211</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7831,7 +7882,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4212</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7883,7 +7934,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4215</t>
+          <t>4215</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7935,7 +7986,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4231</t>
+          <t>4231</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -7987,7 +8038,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4232</t>
+          <t>4232</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -8039,7 +8090,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4449</t>
+          <t>4449</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -8091,7 +8142,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4450</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -8143,7 +8194,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4451</t>
+          <t>4451</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8195,7 +8246,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4491</t>
+          <t>4491</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -8247,7 +8298,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4521</t>
+          <t>4521</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -8299,7 +8350,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4523</t>
+          <t>4523</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -8351,7 +8402,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4527</t>
+          <t>4527</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8403,7 +8454,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4603</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -8455,7 +8506,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4671</t>
+          <t>4671</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8495,7 +8546,6 @@
           <t>156</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr">
         <is>
           <t>27/11/2022</t>
@@ -8503,7 +8553,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4674</t>
+          <t>4674</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -8555,7 +8605,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4675</t>
+          <t>4675</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8586,6 +8636,563 @@
       <c r="J158" t="inlineStr">
         <is>
           <t>32</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4122</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4124</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.36%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4209</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4210</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4.29%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4211</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.67%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4212</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>12.09%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4215</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.86%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4231</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3.07%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4232</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.01%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4449</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5.17%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4450</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4451</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5.84%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4491</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>4.43%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4521</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.00%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4523</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4527</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>6.69%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4603</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3.75%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4671</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4674</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4675</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_3779.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_3779.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2480,6 +2479,7 @@
           <t>38</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>13/06/2012</t>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3047,6 +3047,7 @@
           <t>49</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>20/01/2013</t>
@@ -3198,6 +3199,7 @@
           <t>52</t>
         </is>
       </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>25/03/2013</t>
@@ -3349,6 +3351,7 @@
           <t>55</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>13/06/2013</t>
@@ -3500,6 +3503,7 @@
           <t>58</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>02/07/2013</t>
@@ -3859,6 +3863,7 @@
           <t>65</t>
         </is>
       </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>28/07/2013</t>
@@ -3906,6 +3911,7 @@
           <t>66</t>
         </is>
       </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>31/07/2013</t>
@@ -4005,6 +4011,7 @@
           <t>68</t>
         </is>
       </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>12/11/2013</t>
@@ -5300,6 +5307,7 @@
           <t>93</t>
         </is>
       </c>
+      <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
           <t>26/02/2015</t>
@@ -5347,6 +5355,7 @@
           <t>94</t>
         </is>
       </c>
+      <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
           <t>01/03/2015</t>
@@ -5966,6 +5975,7 @@
           <t>106</t>
         </is>
       </c>
+      <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
           <t>02/01/2016</t>
@@ -5978,7 +5988,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -7053,6 +7063,7 @@
           <t>127</t>
         </is>
       </c>
+      <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr">
         <is>
           <t>08/06/2017</t>
@@ -7620,6 +7631,7 @@
           <t>138</t>
         </is>
       </c>
+      <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr">
         <is>
           <t>25/01/2018</t>
@@ -7719,6 +7731,7 @@
           <t>140</t>
         </is>
       </c>
+      <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr">
         <is>
           <t>10/10/2018</t>
@@ -7731,7 +7744,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -8546,6 +8559,7 @@
           <t>156</t>
         </is>
       </c>
+      <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr">
         <is>
           <t>27/11/2022</t>
@@ -8636,563 +8650,6 @@
       <c r="J158" t="inlineStr">
         <is>
           <t>32</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4122</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4124</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>20.36%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4209</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4210</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.29%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4211</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>22.67%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4212</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>12.09%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4215</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>21.86%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4231</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.07%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4232</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.01%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4449</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5.17%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4450</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4451</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5.84%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4491</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.43%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4521</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>25.00%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4523</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4527</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>6.69%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4603</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.75%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4671</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4674</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4675</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
         </is>
       </c>
     </row>
